--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF7C72-CDDD-4E93-A0F5-5A05E1175D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7E89E-53AB-4C04-9241-FC86DF66FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{215EA5FD-0867-4928-828C-850EE732D943}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Le premier sprint a comencé</t>
+  </si>
+  <si>
+    <t>J'ai fini la story "Début du jeu"</t>
+  </si>
+  <si>
+    <t>J'ai fini la strory "Menu"</t>
   </si>
 </sst>
 </file>
@@ -189,6 +195,98 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
@@ -204,98 +302,6 @@
         <i val="0"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,16 +317,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:C4" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08447A77-955F-4B58-B487-9AB081FFCD86}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B4ED0F5A-149C-4AD4-A32E-4051FB69A5A8}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{659920CF-598F-44E8-B713-8B2657579794}" name="VIP" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{08447A77-955F-4B58-B487-9AB081FFCD86}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B4ED0F5A-149C-4AD4-A32E-4051FB69A5A8}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{659920CF-598F-44E8-B713-8B2657579794}" name="VIP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C89F7A-95F7-4DA2-B966-A56DEA615FAD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,15 +684,33 @@
       </c>
       <c r="C4" s="8"/>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>44608</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44609</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7E89E-53AB-4C04-9241-FC86DF66FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF432994-325C-4DE9-AA9D-5D5F6AF6636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{215EA5FD-0867-4928-828C-850EE732D943}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -60,7 +60,10 @@
     <t>J'ai fini la story "Début du jeu"</t>
   </si>
   <si>
-    <t>J'ai fini la strory "Menu"</t>
+    <t>J'ai fini la story "Menu"</t>
+  </si>
+  <si>
+    <t>J'ai fini la story "Aide du jeu"</t>
   </si>
 </sst>
 </file>
@@ -317,8 +320,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="A1:C6" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C89F7A-95F7-4DA2-B966-A56DEA615FAD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +704,15 @@
         <v>8</v>
       </c>
       <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>44609</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF432994-325C-4DE9-AA9D-5D5F6AF6636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{215EA5FD-0867-4928-828C-850EE732D943}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -64,12 +63,21 @@
   </si>
   <si>
     <t>J'ai fini la story "Aide du jeu"</t>
+  </si>
+  <si>
+    <t>Le deuxième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le troisième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Mise en point de mon planning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -162,11 +170,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -190,6 +213,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -198,98 +227,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
@@ -305,6 +242,98 @@
         <i val="0"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,16 +349,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="A1:C7" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:C10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08447A77-955F-4B58-B487-9AB081FFCD86}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B4ED0F5A-149C-4AD4-A32E-4051FB69A5A8}" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{659920CF-598F-44E8-B713-8B2657579794}" name="VIP" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="VIP" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,21 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C89F7A-95F7-4DA2-B966-A56DEA615FAD}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="140.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="140.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -656,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44594</v>
       </c>
@@ -667,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44608</v>
       </c>
@@ -678,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44608</v>
       </c>
@@ -687,7 +716,7 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44608</v>
       </c>
@@ -696,7 +725,7 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44609</v>
       </c>
@@ -705,7 +734,7 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44609</v>
       </c>
@@ -714,15 +743,44 @@
       </c>
       <c r="C7" s="8"/>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44615</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44622</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44622</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>Le premier sprint a comencé</t>
-  </si>
-  <si>
-    <t>J'ai fini la story "Début du jeu"</t>
-  </si>
-  <si>
-    <t>J'ai fini la story "Menu"</t>
-  </si>
-  <si>
-    <t>J'ai fini la story "Aide du jeu"</t>
   </si>
   <si>
     <t>Le deuxième sprint a comencé</t>
@@ -349,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:C10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -661,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +709,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -726,49 +717,22 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44609</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9">
+        <v>44622</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>44609</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9">
+        <v>44622</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44615</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>44622</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>44622</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF432994-325C-4DE9-AA9D-5D5F6AF6636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085EE90-5FE1-4FF7-A0F9-6A0E233D46F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{215EA5FD-0867-4928-828C-850EE732D943}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>Le premier sprint a comencé</t>
-  </si>
-  <si>
-    <t>J'ai fini la story "Début du jeu"</t>
-  </si>
-  <si>
-    <t>J'ai fini la story "Menu"</t>
-  </si>
-  <si>
-    <t>J'ai fini la story "Aide du jeu"</t>
   </si>
 </sst>
 </file>
@@ -198,98 +189,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
@@ -305,6 +204,98 @@
         <i val="0"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,16 +311,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="A1:C7" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:C4" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08447A77-955F-4B58-B487-9AB081FFCD86}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B4ED0F5A-149C-4AD4-A32E-4051FB69A5A8}" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{659920CF-598F-44E8-B713-8B2657579794}" name="VIP" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{08447A77-955F-4B58-B487-9AB081FFCD86}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B4ED0F5A-149C-4AD4-A32E-4051FB69A5A8}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{659920CF-598F-44E8-B713-8B2657579794}" name="VIP" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C89F7A-95F7-4DA2-B966-A56DEA615FAD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,42 +678,15 @@
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>44608</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>44609</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>44609</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPNV\1ereAnnee2.0\MA\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085EE90-5FE1-4FF7-A0F9-6A0E233D46F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{215EA5FD-0867-4928-828C-850EE732D943}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -55,12 +54,30 @@
   </si>
   <si>
     <t>Le premier sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le deuxième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le troisième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le quatrième sprint a comencé</t>
+  </si>
+  <si>
+    <t>J'ai fini et rendu sur GitHub la version 0.1 de la bataille navale</t>
+  </si>
+  <si>
+    <t>Le cinquième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le sixième sprint a comencé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -153,11 +170,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -181,6 +213,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -311,16 +349,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}" name="Tableau2" displayName="Tableau2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:C4" xr:uid="{8F5877CC-2F40-4861-8091-EC8AD31DED48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:C10">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08447A77-955F-4B58-B487-9AB081FFCD86}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B4ED0F5A-149C-4AD4-A32E-4051FB69A5A8}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{659920CF-598F-44E8-B713-8B2657579794}" name="VIP" dataDxfId="3"/>
+    <tableColumn id="1" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="VIP" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,21 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C89F7A-95F7-4DA2-B966-A56DEA615FAD}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="140.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="140.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44594</v>
       </c>
@@ -658,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44608</v>
       </c>
@@ -669,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44608</v>
       </c>
@@ -677,6 +715,60 @@
         <v>6</v>
       </c>
       <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44615</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44622</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44629</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44631</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44632</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44636</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Le sixième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le septième sprint a comencé</t>
   </si>
 </sst>
 </file>
@@ -349,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:C10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:C11">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +772,15 @@
         <v>12</v>
       </c>
       <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44643</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Le septième sprint a comencé</t>
+  </si>
+  <si>
+    <t>Le huitième sprint a comencé</t>
   </si>
 </sst>
 </file>
@@ -352,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:C12">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +784,15 @@
         <v>13</v>
       </c>
       <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44650</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">

--- a/Journaux/JournalDeBord.xlsx
+++ b/Journaux/JournalDeBord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MA-20\BatailleNavale\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPNV\1ere anee 2.0\MA\MA-20\BatailleNavale\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD436B0-87B6-4FD8-BD6E-1F7823D9BADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -78,12 +70,18 @@
   </si>
   <si>
     <t>Le huitième sprint a comencé</t>
+  </si>
+  <si>
+    <t>J'ai rendu toute ma documentation</t>
+  </si>
+  <si>
+    <t>J'ai rendu la Bataille Navale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,6 +231,98 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF00B050"/>
       </font>
@@ -248,98 +338,6 @@
         <i val="0"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,16 +353,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:C12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:C14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="VIP" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VIP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,15 +792,33 @@
       </c>
       <c r="C12" s="9"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44652</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44652</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Date">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Date">
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
